--- a/Companies/IT Services & Consulting/HCL Technologies Ltd/Pruned_Excel/4_Jun17_Jun18.xlsx
+++ b/Companies/IT Services & Consulting/HCL Technologies Ltd/Pruned_Excel/4_Jun17_Jun18.xlsx
@@ -55,13 +55,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -428,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J36"/>
+  <dimension ref="A1:F36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -442,10 +439,6 @@
     <col width="10" customWidth="1" min="4" max="4"/>
     <col width="10" customWidth="1" min="5" max="5"/>
     <col width="10" customWidth="1" min="6" max="6"/>
-    <col width="2" customWidth="1" min="7" max="7"/>
-    <col width="8" customWidth="1" min="8" max="8"/>
-    <col width="8" customWidth="1" min="9" max="9"/>
-    <col width="9" customWidth="1" min="10" max="10"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -456,43 +449,27 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Jun '17</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Sep '17</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Dec '17</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Mar '18</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
           <t>Jun '18</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Mar '18</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Dec '17</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Sep '17</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Jun '17</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr"/>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Max</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>Min</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>Avg</t>
         </is>
       </c>
     </row>
@@ -504,37 +481,28 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>5,179.00</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>5,460.00</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>5,723.00</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>5,711.00</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
           <t>6,013.00</t>
         </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>5,711.00</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>5,723.00</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>5,460.00</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>5,179.00</t>
-        </is>
-      </c>
-      <c r="H2" s="2" t="n">
-        <v>6013</v>
-      </c>
-      <c r="I2" s="2" t="n">
-        <v>5179</v>
-      </c>
-      <c r="J2" s="2" t="n">
-        <v>5617.2</v>
       </c>
     </row>
     <row r="3">
@@ -545,37 +513,28 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>5,179.00</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>5,460.00</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>5,723.00</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>5,711.00</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
           <t>6,013.00</t>
         </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>5,711.00</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>5,723.00</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>5,460.00</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>5,179.00</t>
-        </is>
-      </c>
-      <c r="H3" s="2" t="n">
-        <v>6013</v>
-      </c>
-      <c r="I3" s="2" t="n">
-        <v>5179</v>
-      </c>
-      <c r="J3" s="2" t="n">
-        <v>5617.2</v>
       </c>
     </row>
     <row r="4"/>
@@ -594,37 +553,28 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>37.00</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>32.00</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>34.00</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>35.00</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
           <t>10.00</t>
         </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>35.00</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>34.00</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>32.00</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>37.00</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="n">
-        <v>37</v>
-      </c>
-      <c r="I6" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="J6" s="2" t="n">
-        <v>29.6</v>
       </c>
     </row>
     <row r="7">
@@ -635,37 +585,28 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>35.00</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>-4.00</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>-1.00</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>20.00</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
           <t>31.00</t>
         </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>20.00</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>-1.00</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>-4.00</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>35.00</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="n">
-        <v>35</v>
-      </c>
-      <c r="I7" s="2" t="n">
-        <v>-4</v>
-      </c>
-      <c r="J7" s="2" t="n">
-        <v>16.2</v>
       </c>
     </row>
     <row r="8">
@@ -676,37 +617,28 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>1,761.00</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>1,890.00</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1,878.00</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>1,836.00</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
           <t>1,861.00</t>
         </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>1,836.00</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>1,878.00</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>1,890.00</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>1,761.00</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="n">
-        <v>1890</v>
-      </c>
-      <c r="I8" s="2" t="n">
-        <v>1761</v>
-      </c>
-      <c r="J8" s="2" t="n">
-        <v>1845.2</v>
       </c>
     </row>
     <row r="9">
@@ -717,37 +649,28 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>131.00</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>184.00</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>294.00</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>284.00</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
           <t>318.00</t>
         </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>284.00</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>294.00</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>184.00</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>131.00</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="n">
-        <v>318</v>
-      </c>
-      <c r="I9" s="2" t="n">
-        <v>131</v>
-      </c>
-      <c r="J9" s="2" t="n">
-        <v>242.2</v>
       </c>
     </row>
     <row r="10">
@@ -758,37 +681,28 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
+          <t>1,234.00</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>1,243.00</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1,271.00</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>1,433.00</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
           <t>1,626.00</t>
         </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>1,433.00</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>1,271.00</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>1,243.00</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>1,234.00</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="n">
-        <v>1626</v>
-      </c>
-      <c r="I10" s="2" t="n">
-        <v>1234</v>
-      </c>
-      <c r="J10" s="2" t="n">
-        <v>1361.4</v>
       </c>
     </row>
     <row r="11">
@@ -799,37 +713,28 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
+          <t>1,981.00</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>2,115.00</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2,247.00</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>2,103.00</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
           <t>2,167.00</t>
         </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>2,103.00</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>2,247.00</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>2,115.00</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>1,981.00</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="n">
-        <v>2247</v>
-      </c>
-      <c r="I11" s="2" t="n">
-        <v>1981</v>
-      </c>
-      <c r="J11" s="2" t="n">
-        <v>2122.6</v>
       </c>
     </row>
     <row r="12">
@@ -840,37 +745,28 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
+          <t>199.00</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>162.00</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>143.00</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>198.00</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
           <t>211.00</t>
         </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>198.00</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>143.00</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>162.00</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>199.00</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="n">
-        <v>211</v>
-      </c>
-      <c r="I12" s="2" t="n">
-        <v>143</v>
-      </c>
-      <c r="J12" s="2" t="n">
-        <v>182.6</v>
       </c>
     </row>
     <row r="13">
@@ -881,37 +777,28 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
+          <t>2,180.00</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>2,277.00</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2,390.00</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>2,301.00</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
           <t>2,378.00</t>
         </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>2,301.00</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>2,390.00</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>2,277.00</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>2,180.00</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="n">
-        <v>2390</v>
-      </c>
-      <c r="I13" s="2" t="n">
-        <v>2180</v>
-      </c>
-      <c r="J13" s="2" t="n">
-        <v>2305.2</v>
       </c>
     </row>
     <row r="14">
@@ -922,37 +809,28 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
+          <t>6.00</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
           <t>5.00</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="D14" t="inlineStr">
         <is>
           <t>6.00</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>6.00</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>5.00</t>
         </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>6.00</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="I14" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="J14" s="2" t="n">
-        <v>5.6</v>
       </c>
     </row>
     <row r="15">
@@ -963,37 +841,28 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
+          <t>2,174.00</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>2,272.00</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2,384.00</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>2,295.00</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
           <t>2,373.00</t>
         </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>2,295.00</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>2,384.00</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>2,272.00</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>2,174.00</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="n">
-        <v>2384</v>
-      </c>
-      <c r="I15" s="2" t="n">
-        <v>2174</v>
-      </c>
-      <c r="J15" s="2" t="n">
-        <v>2299.6</v>
       </c>
     </row>
     <row r="16">
@@ -1004,37 +873,28 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
+          <t>2,174.00</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>2,272.00</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2,384.00</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>2,295.00</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
           <t>2,373.00</t>
         </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>2,295.00</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>2,384.00</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>2,272.00</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>2,174.00</t>
-        </is>
-      </c>
-      <c r="H16" s="2" t="n">
-        <v>2384</v>
-      </c>
-      <c r="I16" s="2" t="n">
-        <v>2174</v>
-      </c>
-      <c r="J16" s="2" t="n">
-        <v>2299.6</v>
       </c>
     </row>
     <row r="17">
@@ -1045,37 +905,28 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
+          <t>412.00</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>482.00</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>415.00</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>454.00</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
           <t>387.00</t>
         </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>454.00</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>415.00</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>482.00</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>412.00</t>
-        </is>
-      </c>
-      <c r="H17" s="2" t="n">
-        <v>482</v>
-      </c>
-      <c r="I17" s="2" t="n">
-        <v>387</v>
-      </c>
-      <c r="J17" s="2" t="n">
-        <v>430</v>
       </c>
     </row>
     <row r="18">
@@ -1086,37 +937,28 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
+          <t>1,762.00</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>1,790.00</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>1,969.00</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>1,841.00</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
           <t>1,986.00</t>
         </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>1,841.00</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>1,969.00</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>1,790.00</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>1,762.00</t>
-        </is>
-      </c>
-      <c r="H18" s="2" t="n">
-        <v>1986</v>
-      </c>
-      <c r="I18" s="2" t="n">
-        <v>1762</v>
-      </c>
-      <c r="J18" s="2" t="n">
-        <v>1869.6</v>
       </c>
     </row>
     <row r="19">
@@ -1127,37 +969,28 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
+          <t>1,762.00</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>1,790.00</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>1,969.00</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>1,841.00</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
           <t>1,986.00</t>
         </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>1,841.00</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>1,969.00</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>1,790.00</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>1,762.00</t>
-        </is>
-      </c>
-      <c r="H19" s="2" t="n">
-        <v>1986</v>
-      </c>
-      <c r="I19" s="2" t="n">
-        <v>1762</v>
-      </c>
-      <c r="J19" s="2" t="n">
-        <v>1869.6</v>
       </c>
     </row>
     <row r="20">
@@ -1168,37 +1001,28 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
+          <t>285.36</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>278.41</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>278.41</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
           <t>278.45</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
+      <c r="F20" t="inlineStr">
         <is>
           <t>278.45</t>
         </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>278.41</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>278.41</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>285.36</t>
-        </is>
-      </c>
-      <c r="H20" s="2" t="n">
-        <v>285.36</v>
-      </c>
-      <c r="I20" s="2" t="n">
-        <v>278.41</v>
-      </c>
-      <c r="J20" s="2" t="n">
-        <v>279.816</v>
       </c>
     </row>
     <row r="21"/>
@@ -1217,37 +1041,28 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
+          <t>12.35</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>12.84</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>14.14</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>13.22</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
           <t>14.26</t>
         </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>13.22</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>14.14</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>12.84</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>12.35</t>
-        </is>
-      </c>
-      <c r="H23" s="2" t="n">
-        <v>14.26</v>
-      </c>
-      <c r="I23" s="2" t="n">
-        <v>12.35</v>
-      </c>
-      <c r="J23" s="2" t="n">
-        <v>13.362</v>
       </c>
     </row>
     <row r="24">
@@ -1258,37 +1073,28 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
+          <t>12.28</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>12.83</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>14.13</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>13.21</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
           <t>14.26</t>
         </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>13.21</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>14.13</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>12.83</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>12.28</t>
-        </is>
-      </c>
-      <c r="H24" s="2" t="n">
-        <v>14.26</v>
-      </c>
-      <c r="I24" s="2" t="n">
-        <v>12.28</v>
-      </c>
-      <c r="J24" s="2" t="n">
-        <v>13.342</v>
       </c>
     </row>
     <row r="25"/>
@@ -1307,37 +1113,28 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
+          <t>12.35</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>12.84</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>14.14</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>13.22</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
           <t>14.26</t>
         </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>13.22</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>14.14</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>12.84</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>12.35</t>
-        </is>
-      </c>
-      <c r="H27" s="2" t="n">
-        <v>14.26</v>
-      </c>
-      <c r="I27" s="2" t="n">
-        <v>12.35</v>
-      </c>
-      <c r="J27" s="2" t="n">
-        <v>13.362</v>
       </c>
     </row>
     <row r="28">
@@ -1348,37 +1145,28 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
+          <t>12.28</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>12.83</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>14.13</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>13.21</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
           <t>14.26</t>
         </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>13.21</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>14.13</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>12.83</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>12.28</t>
-        </is>
-      </c>
-      <c r="H28" s="2" t="n">
-        <v>14.26</v>
-      </c>
-      <c r="I28" s="2" t="n">
-        <v>12.28</v>
-      </c>
-      <c r="J28" s="2" t="n">
-        <v>13.342</v>
       </c>
     </row>
     <row r="29"/>
